--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="9450"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +36,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +48,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-02</t>
-  </si>
-  <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>فروش</t>
@@ -561,9 +561,9 @@
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" x14ac:dyDescent="0.25">
@@ -694,19 +694,19 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>9867</v>
+        <v>10855</v>
       </c>
       <c r="E11" s="13">
-        <v>10855</v>
+        <v>10940</v>
       </c>
       <c r="F11" s="13">
-        <v>10940</v>
+        <v>11624</v>
       </c>
       <c r="G11" s="13">
-        <v>11624</v>
+        <v>15224</v>
       </c>
       <c r="H11" s="13">
-        <v>15224</v>
+        <v>18216</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
@@ -715,19 +715,19 @@
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-4125</v>
+        <v>-4649</v>
       </c>
       <c r="E12" s="11">
-        <v>-4649</v>
+        <v>-6272</v>
       </c>
       <c r="F12" s="11">
-        <v>-6272</v>
+        <v>-5304</v>
       </c>
       <c r="G12" s="11">
-        <v>-5304</v>
+        <v>-5572</v>
       </c>
       <c r="H12" s="11">
-        <v>-5572</v>
+        <v>-7040</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
@@ -736,19 +736,19 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5742</v>
+        <v>6206</v>
       </c>
       <c r="E13" s="15">
-        <v>6206</v>
+        <v>4669</v>
       </c>
       <c r="F13" s="15">
-        <v>4669</v>
+        <v>6320</v>
       </c>
       <c r="G13" s="15">
-        <v>6320</v>
+        <v>9652</v>
       </c>
       <c r="H13" s="15">
-        <v>9652</v>
+        <v>11176</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
@@ -757,19 +757,19 @@
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-728</v>
+        <v>-330</v>
       </c>
       <c r="E14" s="11">
-        <v>-330</v>
+        <v>-576</v>
       </c>
       <c r="F14" s="11">
-        <v>-576</v>
+        <v>-503</v>
       </c>
       <c r="G14" s="11">
-        <v>-503</v>
+        <v>-605</v>
       </c>
       <c r="H14" s="11">
-        <v>-605</v>
+        <v>-2042</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
@@ -799,19 +799,19 @@
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-177</v>
+        <v>170</v>
       </c>
       <c r="E16" s="11">
-        <v>170</v>
+        <v>-102</v>
       </c>
       <c r="F16" s="11">
-        <v>-102</v>
+        <v>6</v>
       </c>
       <c r="G16" s="11">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="H16" s="11">
-        <v>-7</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
@@ -820,19 +820,19 @@
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4837</v>
+        <v>6045</v>
       </c>
       <c r="E17" s="15">
-        <v>6045</v>
+        <v>3991</v>
       </c>
       <c r="F17" s="15">
-        <v>3991</v>
+        <v>5823</v>
       </c>
       <c r="G17" s="15">
-        <v>5823</v>
+        <v>9040</v>
       </c>
       <c r="H17" s="15">
-        <v>9040</v>
+        <v>9378</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -841,19 +841,19 @@
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E18" s="11">
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="F18" s="11">
-        <v>-37</v>
+        <v>-51</v>
       </c>
       <c r="G18" s="11">
-        <v>-51</v>
+        <v>-43</v>
       </c>
       <c r="H18" s="11">
-        <v>-43</v>
+        <v>-41</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
@@ -862,19 +862,19 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>251</v>
+        <v>620</v>
       </c>
       <c r="E19" s="13">
-        <v>620</v>
+        <v>386</v>
       </c>
       <c r="F19" s="13">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="G19" s="13">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="H19" s="13">
-        <v>794</v>
+        <v>824</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -883,19 +883,19 @@
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>5042</v>
+        <v>6620</v>
       </c>
       <c r="E20" s="17">
-        <v>6620</v>
+        <v>4340</v>
       </c>
       <c r="F20" s="17">
-        <v>4340</v>
+        <v>6626</v>
       </c>
       <c r="G20" s="17">
-        <v>6626</v>
+        <v>9791</v>
       </c>
       <c r="H20" s="17">
-        <v>9791</v>
+        <v>10161</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
@@ -904,19 +904,19 @@
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1388</v>
+        <v>-224</v>
       </c>
       <c r="E21" s="13">
-        <v>-224</v>
+        <v>-596</v>
       </c>
       <c r="F21" s="13">
-        <v>-596</v>
+        <v>-858</v>
       </c>
       <c r="G21" s="13">
-        <v>-858</v>
+        <v>-2160</v>
       </c>
       <c r="H21" s="13">
-        <v>-2160</v>
+        <v>-1307</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
@@ -925,19 +925,19 @@
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="E22" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="F22" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="G22" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="H22" s="17">
-        <v>7631</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
@@ -967,19 +967,19 @@
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="E24" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="F24" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="G24" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="H24" s="17">
-        <v>7631</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
@@ -1009,19 +1009,19 @@
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2490</v>
+        <v>2283</v>
       </c>
       <c r="E26" s="11">
-        <v>2283</v>
+        <v>2360</v>
       </c>
       <c r="F26" s="11">
-        <v>2360</v>
+        <v>2212</v>
       </c>
       <c r="G26" s="11">
-        <v>2212</v>
+        <v>2096</v>
       </c>
       <c r="H26" s="11">
-        <v>2096</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53940321-B80A-4FC1-8E1F-8E34E45EEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
+    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساوه-سیمان ساوه</t>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1400/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -51,22 +49,25 @@
     <t>فصل دوم منتهی به 1401/06</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-08-30 (4)</t>
-  </si>
-  <si>
-    <t>1400-11-02</t>
-  </si>
-  <si>
-    <t>1401-08-30 (7)</t>
+    <t>1401-11-01 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01 (8)</t>
   </si>
   <si>
     <t>1401-05-01</t>
   </si>
   <si>
     <t>1401-08-30 (2)</t>
+  </si>
+  <si>
+    <t>1401-11-01</t>
   </si>
   <si>
     <t>فروش</t>
@@ -126,7 +127,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -307,7 +308,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -319,7 +320,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -366,6 +367,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -401,6 +419,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -552,21 +587,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="8" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -575,7 +610,7 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -586,7 +621,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -597,7 +632,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -606,7 +641,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -617,7 +652,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -628,7 +663,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -637,7 +672,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
     </row>
-    <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -658,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
@@ -679,7 +714,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -688,91 +723,91 @@
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>9867</v>
+        <v>10855</v>
       </c>
       <c r="E11" s="13">
-        <v>10855</v>
+        <v>10940</v>
       </c>
       <c r="F11" s="13">
-        <v>10940</v>
+        <v>11624</v>
       </c>
       <c r="G11" s="13">
-        <v>11624</v>
+        <v>15224</v>
       </c>
       <c r="H11" s="13">
-        <v>15224</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+        <v>18216</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-4125</v>
+        <v>-4649</v>
       </c>
       <c r="E12" s="11">
-        <v>-4649</v>
+        <v>-6272</v>
       </c>
       <c r="F12" s="11">
-        <v>-6272</v>
+        <v>-5304</v>
       </c>
       <c r="G12" s="11">
-        <v>-5304</v>
+        <v>-5572</v>
       </c>
       <c r="H12" s="11">
-        <v>-5572</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-7040</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>5742</v>
+        <v>6206</v>
       </c>
       <c r="E13" s="15">
-        <v>6206</v>
+        <v>4669</v>
       </c>
       <c r="F13" s="15">
-        <v>4669</v>
+        <v>6320</v>
       </c>
       <c r="G13" s="15">
-        <v>6320</v>
+        <v>9652</v>
       </c>
       <c r="H13" s="15">
-        <v>9652</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+        <v>11176</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-728</v>
+        <v>-330</v>
       </c>
       <c r="E14" s="11">
-        <v>-330</v>
+        <v>-576</v>
       </c>
       <c r="F14" s="11">
-        <v>-576</v>
+        <v>-503</v>
       </c>
       <c r="G14" s="11">
-        <v>-503</v>
+        <v>-605</v>
       </c>
       <c r="H14" s="11">
-        <v>-605</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-2042</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>20</v>
       </c>
@@ -793,154 +828,154 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>-177</v>
+        <v>170</v>
       </c>
       <c r="E16" s="11">
-        <v>170</v>
+        <v>-102</v>
       </c>
       <c r="F16" s="11">
-        <v>-102</v>
+        <v>6</v>
       </c>
       <c r="G16" s="11">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="H16" s="11">
-        <v>-7</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>4837</v>
+        <v>6045</v>
       </c>
       <c r="E17" s="15">
-        <v>6045</v>
+        <v>3991</v>
       </c>
       <c r="F17" s="15">
-        <v>3991</v>
+        <v>5823</v>
       </c>
       <c r="G17" s="15">
-        <v>5823</v>
+        <v>9040</v>
       </c>
       <c r="H17" s="15">
-        <v>9040</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="E18" s="11">
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="F18" s="11">
-        <v>-37</v>
+        <v>-51</v>
       </c>
       <c r="G18" s="11">
-        <v>-51</v>
+        <v>-43</v>
       </c>
       <c r="H18" s="11">
-        <v>-43</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>251</v>
+        <v>620</v>
       </c>
       <c r="E19" s="13">
-        <v>620</v>
+        <v>386</v>
       </c>
       <c r="F19" s="13">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="G19" s="13">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="H19" s="13">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>26</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>5042</v>
+        <v>6620</v>
       </c>
       <c r="E20" s="17">
-        <v>6620</v>
+        <v>4340</v>
       </c>
       <c r="F20" s="17">
-        <v>4340</v>
+        <v>6626</v>
       </c>
       <c r="G20" s="17">
-        <v>6626</v>
+        <v>9791</v>
       </c>
       <c r="H20" s="17">
-        <v>9791</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>10161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-1388</v>
+        <v>-224</v>
       </c>
       <c r="E21" s="13">
-        <v>-224</v>
+        <v>-596</v>
       </c>
       <c r="F21" s="13">
-        <v>-596</v>
+        <v>-858</v>
       </c>
       <c r="G21" s="13">
-        <v>-858</v>
+        <v>-2160</v>
       </c>
       <c r="H21" s="13">
-        <v>-2160</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>-1307</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="E22" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="F22" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="G22" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="H22" s="17">
-        <v>7631</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>29</v>
       </c>
@@ -961,28 +996,28 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>30</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="E24" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="F24" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="G24" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="H24" s="17">
-        <v>7631</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+        <v>8853</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>31</v>
       </c>
@@ -1003,28 +1038,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2490</v>
+        <v>2283</v>
       </c>
       <c r="E26" s="11">
-        <v>2283</v>
+        <v>2360</v>
       </c>
       <c r="F26" s="11">
-        <v>2360</v>
+        <v>2212</v>
       </c>
       <c r="G26" s="11">
-        <v>2212</v>
+        <v>2096</v>
       </c>
       <c r="H26" s="11">
-        <v>2096</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>33</v>
       </c>
@@ -1045,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53940321-B80A-4FC1-8E1F-8E34E45EEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7350"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +36,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +69,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-11-01 (2)</t>
-  </si>
-  <si>
-    <t>1401-11-01 (8)</t>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-02 (2)</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1401-05-01 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +96,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -127,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -308,7 +337,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -320,7 +349,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -367,23 +396,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -419,23 +431,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -587,21 +582,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +606,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +622,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +638,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +652,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +668,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +684,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +698,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +724,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,304 +784,519 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>6943</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8060</v>
+      </c>
+      <c r="F11" s="13">
+        <v>8138</v>
+      </c>
+      <c r="G11" s="13">
+        <v>11452</v>
+      </c>
+      <c r="H11" s="13">
+        <v>9867</v>
+      </c>
+      <c r="I11" s="13">
         <v>10855</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>10940</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>11624</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>15224</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>18216</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-3123</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3056</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-3243</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-4595</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-4125</v>
+      </c>
+      <c r="I12" s="11">
         <v>-4649</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-6272</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-5304</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-5572</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-7040</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>3820</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5005</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4895</v>
+      </c>
+      <c r="G13" s="15">
+        <v>6857</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5742</v>
+      </c>
+      <c r="I13" s="15">
         <v>6206</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>4669</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>6320</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>9652</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>11176</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-334</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-811</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1772</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-1244</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-728</v>
+      </c>
+      <c r="I14" s="11">
         <v>-330</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-576</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-503</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-605</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-2042</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>192</v>
+      </c>
+      <c r="E16" s="11">
+        <v>228</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-105</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-8</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-177</v>
+      </c>
+      <c r="I16" s="11">
         <v>170</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-102</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-7</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>3678</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4422</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3017</v>
+      </c>
+      <c r="G17" s="15">
+        <v>5605</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4837</v>
+      </c>
+      <c r="I17" s="15">
         <v>6045</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>3991</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>5823</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>9040</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>9378</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-40</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-47</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-39</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-58</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-46</v>
+      </c>
+      <c r="I18" s="11">
         <v>-45</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-37</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-51</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-43</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-41</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>228</v>
+      </c>
+      <c r="E19" s="13">
+        <v>553</v>
+      </c>
+      <c r="F19" s="13">
+        <v>84</v>
+      </c>
+      <c r="G19" s="13">
+        <v>454</v>
+      </c>
+      <c r="H19" s="13">
+        <v>251</v>
+      </c>
+      <c r="I19" s="13">
         <v>620</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>386</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>854</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>794</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>824</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>3866</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4927</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3062</v>
+      </c>
+      <c r="G20" s="17">
+        <v>6002</v>
+      </c>
+      <c r="H20" s="17">
+        <v>5042</v>
+      </c>
+      <c r="I20" s="17">
         <v>6620</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>4340</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>6626</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>9791</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>10161</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-586</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-713</v>
+      </c>
+      <c r="F21" s="13">
+        <v>89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-427</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-1388</v>
+      </c>
+      <c r="I21" s="13">
         <v>-224</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-596</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-858</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2160</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-1307</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>3281</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4214</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3151</v>
+      </c>
+      <c r="G22" s="17">
+        <v>5575</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3654</v>
+      </c>
+      <c r="I22" s="17">
         <v>6396</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>3744</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>5768</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>7631</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>8853</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>3281</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4214</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3151</v>
+      </c>
+      <c r="G24" s="17">
+        <v>5575</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3654</v>
+      </c>
+      <c r="I24" s="17">
         <v>6396</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>3744</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>5768</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>7631</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>8853</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1037,31 +1314,61 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>2947</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2392</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2661</v>
+      </c>
+      <c r="G26" s="11">
+        <v>2786</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2490</v>
+      </c>
+      <c r="I26" s="11">
         <v>2283</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>2360</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>2212</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>2096</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>1871</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1386,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1410,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53940321-B80A-4FC1-8E1F-8E34E45EEDA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254AB36-55E4-404C-BBC1-13ABD330CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,21 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1400/09</t>
   </si>
   <si>
@@ -55,10 +70,25 @@
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1401-11-01 (2)</t>
-  </si>
-  <si>
-    <t>1401-11-01 (8)</t>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
+    <t>1400-11-02 (2)</t>
+  </si>
+  <si>
+    <t>1401-02-25 (12)</t>
+  </si>
+  <si>
+    <t>1401-05-01 (3)</t>
+  </si>
+  <si>
+    <t>1401-08-30 (4)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (3)</t>
+  </si>
+  <si>
+    <t>1401-11-19 (9)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -67,7 +97,7 @@
     <t>1401-08-30 (2)</t>
   </si>
   <si>
-    <t>1401-11-01</t>
+    <t>1401-11-19 (2)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -588,20 +618,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H28"/>
+  <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="29" customWidth="1"/>
-    <col min="5" max="5" width="31" customWidth="1"/>
-    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="4" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="31" customWidth="1"/>
+    <col min="7" max="9" width="29" customWidth="1"/>
+    <col min="10" max="10" width="31" customWidth="1"/>
+    <col min="11" max="13" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -609,8 +641,13 @@
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -620,8 +657,13 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -631,8 +673,13 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -640,8 +687,13 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -651,8 +703,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -662,8 +719,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -671,8 +733,13 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -692,29 +759,59 @@
       <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -722,304 +819,519 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>6943</v>
+      </c>
+      <c r="E11" s="13">
+        <v>8060</v>
+      </c>
+      <c r="F11" s="13">
+        <v>8138</v>
+      </c>
+      <c r="G11" s="13">
+        <v>11452</v>
+      </c>
+      <c r="H11" s="13">
+        <v>9867</v>
+      </c>
+      <c r="I11" s="13">
         <v>10855</v>
       </c>
-      <c r="E11" s="13">
+      <c r="J11" s="13">
         <v>10940</v>
       </c>
-      <c r="F11" s="13">
+      <c r="K11" s="13">
         <v>11624</v>
       </c>
-      <c r="G11" s="13">
+      <c r="L11" s="13">
         <v>15224</v>
       </c>
-      <c r="H11" s="13">
+      <c r="M11" s="13">
         <v>18216</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-3123</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3056</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-3243</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-4595</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-4125</v>
+      </c>
+      <c r="I12" s="11">
         <v>-4649</v>
       </c>
-      <c r="E12" s="11">
+      <c r="J12" s="11">
         <v>-6272</v>
       </c>
-      <c r="F12" s="11">
+      <c r="K12" s="11">
         <v>-5304</v>
       </c>
-      <c r="G12" s="11">
+      <c r="L12" s="11">
         <v>-5572</v>
       </c>
-      <c r="H12" s="11">
+      <c r="M12" s="11">
         <v>-7040</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>3820</v>
+      </c>
+      <c r="E13" s="15">
+        <v>5005</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4895</v>
+      </c>
+      <c r="G13" s="15">
+        <v>6857</v>
+      </c>
+      <c r="H13" s="15">
+        <v>5742</v>
+      </c>
+      <c r="I13" s="15">
         <v>6206</v>
       </c>
-      <c r="E13" s="15">
+      <c r="J13" s="15">
         <v>4669</v>
       </c>
-      <c r="F13" s="15">
+      <c r="K13" s="15">
         <v>6320</v>
       </c>
-      <c r="G13" s="15">
+      <c r="L13" s="15">
         <v>9652</v>
       </c>
-      <c r="H13" s="15">
+      <c r="M13" s="15">
         <v>11176</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-334</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-811</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-1772</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-1244</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-728</v>
+      </c>
+      <c r="I14" s="11">
         <v>-330</v>
       </c>
-      <c r="E14" s="11">
+      <c r="J14" s="11">
         <v>-576</v>
       </c>
-      <c r="F14" s="11">
+      <c r="K14" s="11">
         <v>-503</v>
       </c>
-      <c r="G14" s="11">
+      <c r="L14" s="11">
         <v>-605</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>-2042</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M15" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="10" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>192</v>
+      </c>
+      <c r="E16" s="11">
+        <v>228</v>
+      </c>
+      <c r="F16" s="11">
+        <v>-105</v>
+      </c>
+      <c r="G16" s="11">
+        <v>-8</v>
+      </c>
+      <c r="H16" s="11">
+        <v>-177</v>
+      </c>
+      <c r="I16" s="11">
         <v>170</v>
       </c>
-      <c r="E16" s="11">
+      <c r="J16" s="11">
         <v>-102</v>
       </c>
-      <c r="F16" s="11">
+      <c r="K16" s="11">
         <v>6</v>
       </c>
-      <c r="G16" s="11">
+      <c r="L16" s="11">
         <v>-7</v>
       </c>
-      <c r="H16" s="11">
+      <c r="M16" s="11">
         <v>244</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>3678</v>
+      </c>
+      <c r="E17" s="15">
+        <v>4422</v>
+      </c>
+      <c r="F17" s="15">
+        <v>3017</v>
+      </c>
+      <c r="G17" s="15">
+        <v>5605</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4837</v>
+      </c>
+      <c r="I17" s="15">
         <v>6045</v>
       </c>
-      <c r="E17" s="15">
+      <c r="J17" s="15">
         <v>3991</v>
       </c>
-      <c r="F17" s="15">
+      <c r="K17" s="15">
         <v>5823</v>
       </c>
-      <c r="G17" s="15">
+      <c r="L17" s="15">
         <v>9040</v>
       </c>
-      <c r="H17" s="15">
+      <c r="M17" s="15">
         <v>9378</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-40</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-47</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-39</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-58</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-46</v>
+      </c>
+      <c r="I18" s="11">
         <v>-45</v>
       </c>
-      <c r="E18" s="11">
+      <c r="J18" s="11">
         <v>-37</v>
       </c>
-      <c r="F18" s="11">
+      <c r="K18" s="11">
         <v>-51</v>
       </c>
-      <c r="G18" s="11">
+      <c r="L18" s="11">
         <v>-43</v>
       </c>
-      <c r="H18" s="11">
+      <c r="M18" s="11">
         <v>-41</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>228</v>
+      </c>
+      <c r="E19" s="13">
+        <v>553</v>
+      </c>
+      <c r="F19" s="13">
+        <v>84</v>
+      </c>
+      <c r="G19" s="13">
+        <v>454</v>
+      </c>
+      <c r="H19" s="13">
+        <v>251</v>
+      </c>
+      <c r="I19" s="13">
         <v>620</v>
       </c>
-      <c r="E19" s="13">
+      <c r="J19" s="13">
         <v>386</v>
       </c>
-      <c r="F19" s="13">
+      <c r="K19" s="13">
         <v>854</v>
       </c>
-      <c r="G19" s="13">
+      <c r="L19" s="13">
         <v>794</v>
       </c>
-      <c r="H19" s="13">
+      <c r="M19" s="13">
         <v>824</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" s="16" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>3866</v>
+      </c>
+      <c r="E20" s="17">
+        <v>4927</v>
+      </c>
+      <c r="F20" s="17">
+        <v>3062</v>
+      </c>
+      <c r="G20" s="17">
+        <v>6002</v>
+      </c>
+      <c r="H20" s="17">
+        <v>5042</v>
+      </c>
+      <c r="I20" s="17">
         <v>6620</v>
       </c>
-      <c r="E20" s="17">
+      <c r="J20" s="17">
         <v>4340</v>
       </c>
-      <c r="F20" s="17">
+      <c r="K20" s="17">
         <v>6626</v>
       </c>
-      <c r="G20" s="17">
+      <c r="L20" s="17">
         <v>9791</v>
       </c>
-      <c r="H20" s="17">
+      <c r="M20" s="17">
         <v>10161</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-586</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-713</v>
+      </c>
+      <c r="F21" s="13">
+        <v>89</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-427</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-1388</v>
+      </c>
+      <c r="I21" s="13">
         <v>-224</v>
       </c>
-      <c r="E21" s="13">
+      <c r="J21" s="13">
         <v>-596</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>-858</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>-2160</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>-1307</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>3281</v>
+      </c>
+      <c r="E22" s="17">
+        <v>4214</v>
+      </c>
+      <c r="F22" s="17">
+        <v>3151</v>
+      </c>
+      <c r="G22" s="17">
+        <v>5575</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3654</v>
+      </c>
+      <c r="I22" s="17">
         <v>6396</v>
       </c>
-      <c r="E22" s="17">
+      <c r="J22" s="17">
         <v>3744</v>
       </c>
-      <c r="F22" s="17">
+      <c r="K22" s="17">
         <v>5768</v>
       </c>
-      <c r="G22" s="17">
+      <c r="L22" s="17">
         <v>7631</v>
       </c>
-      <c r="H22" s="17">
+      <c r="M22" s="17">
         <v>8853</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" s="16" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>3281</v>
+      </c>
+      <c r="E24" s="17">
+        <v>4214</v>
+      </c>
+      <c r="F24" s="17">
+        <v>3151</v>
+      </c>
+      <c r="G24" s="17">
+        <v>5575</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3654</v>
+      </c>
+      <c r="I24" s="17">
         <v>6396</v>
       </c>
-      <c r="E24" s="17">
+      <c r="J24" s="17">
         <v>3744</v>
       </c>
-      <c r="F24" s="17">
+      <c r="K24" s="17">
         <v>5768</v>
       </c>
-      <c r="G24" s="17">
+      <c r="L24" s="17">
         <v>7631</v>
       </c>
-      <c r="H24" s="17">
+      <c r="M24" s="17">
         <v>8853</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" s="12" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1037,31 +1349,61 @@
       <c r="H25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="10" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>2947</v>
+      </c>
+      <c r="E26" s="11">
+        <v>2392</v>
+      </c>
+      <c r="F26" s="11">
+        <v>2661</v>
+      </c>
+      <c r="G26" s="11">
+        <v>2786</v>
+      </c>
+      <c r="H26" s="11">
+        <v>2490</v>
+      </c>
+      <c r="I26" s="11">
         <v>2283</v>
       </c>
-      <c r="E26" s="11">
+      <c r="J26" s="11">
         <v>2360</v>
       </c>
-      <c r="F26" s="11">
+      <c r="K26" s="11">
         <v>2212</v>
       </c>
-      <c r="G26" s="11">
+      <c r="L26" s="11">
         <v>2096</v>
       </c>
-      <c r="H26" s="11">
+      <c r="M26" s="11">
         <v>1871</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="12" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1079,8 +1421,23 @@
       <c r="H27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1088,6 +1445,11 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3254AB36-55E4-404C-BBC1-13ABD330CC26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -157,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -338,7 +337,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -350,7 +349,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -397,23 +396,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -449,23 +431,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -617,7 +582,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D90C98-67AE-453E-9E4F-81CA2AA896F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="9420"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -36,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -66,12 +64,12 @@
     <t>فصل سوم منتهی به 1401/09</t>
   </si>
   <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1400-08-29 (4)</t>
-  </si>
-  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -87,7 +85,7 @@
     <t>1401-11-19 (3)</t>
   </si>
   <si>
-    <t>1401-11-19 (9)</t>
+    <t>1402-02-27 (12)</t>
   </si>
   <si>
     <t>1401-05-01</t>
@@ -97,6 +95,9 @@
   </si>
   <si>
     <t>1401-11-19 (2)</t>
+  </si>
+  <si>
+    <t>1402-02-27 (3)</t>
   </si>
   <si>
     <t>فروش</t>
@@ -156,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -337,7 +338,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -349,7 +350,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -396,6 +397,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -431,6 +449,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -582,23 +617,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="5" width="29" customWidth="1"/>
-    <col min="6" max="6" width="31" customWidth="1"/>
-    <col min="7" max="9" width="29" customWidth="1"/>
-    <col min="10" max="10" width="31" customWidth="1"/>
-    <col min="11" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="31" customWidth="1"/>
+    <col min="6" max="8" width="29" customWidth="1"/>
+    <col min="9" max="9" width="31" customWidth="1"/>
+    <col min="10" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -612,7 +648,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -628,7 +664,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -644,7 +680,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -658,7 +694,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -674,7 +710,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -690,7 +726,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -704,7 +740,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -740,7 +776,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -776,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -790,151 +826,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>6943</v>
+        <v>8060</v>
       </c>
       <c r="E11" s="13">
-        <v>8060</v>
+        <v>8138</v>
       </c>
       <c r="F11" s="13">
-        <v>8138</v>
+        <v>11452</v>
       </c>
       <c r="G11" s="13">
-        <v>11452</v>
+        <v>9867</v>
       </c>
       <c r="H11" s="13">
-        <v>9867</v>
+        <v>10855</v>
       </c>
       <c r="I11" s="13">
-        <v>10855</v>
+        <v>10940</v>
       </c>
       <c r="J11" s="13">
-        <v>10940</v>
+        <v>11624</v>
       </c>
       <c r="K11" s="13">
-        <v>11624</v>
+        <v>15224</v>
       </c>
       <c r="L11" s="13">
-        <v>15224</v>
+        <v>18216</v>
       </c>
       <c r="M11" s="13">
-        <v>18216</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>14720</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-3123</v>
+        <v>-3056</v>
       </c>
       <c r="E12" s="11">
-        <v>-3056</v>
+        <v>-3243</v>
       </c>
       <c r="F12" s="11">
-        <v>-3243</v>
+        <v>-4595</v>
       </c>
       <c r="G12" s="11">
-        <v>-4595</v>
+        <v>-4125</v>
       </c>
       <c r="H12" s="11">
-        <v>-4125</v>
+        <v>-4649</v>
       </c>
       <c r="I12" s="11">
-        <v>-4649</v>
+        <v>-6272</v>
       </c>
       <c r="J12" s="11">
-        <v>-6272</v>
+        <v>-5304</v>
       </c>
       <c r="K12" s="11">
-        <v>-5304</v>
+        <v>-5572</v>
       </c>
       <c r="L12" s="11">
-        <v>-5572</v>
+        <v>-7040</v>
       </c>
       <c r="M12" s="11">
-        <v>-7040</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-6888</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>3820</v>
+        <v>5005</v>
       </c>
       <c r="E13" s="15">
-        <v>5005</v>
+        <v>4895</v>
       </c>
       <c r="F13" s="15">
-        <v>4895</v>
+        <v>6857</v>
       </c>
       <c r="G13" s="15">
-        <v>6857</v>
+        <v>5742</v>
       </c>
       <c r="H13" s="15">
-        <v>5742</v>
+        <v>6206</v>
       </c>
       <c r="I13" s="15">
-        <v>6206</v>
+        <v>4669</v>
       </c>
       <c r="J13" s="15">
-        <v>4669</v>
+        <v>6320</v>
       </c>
       <c r="K13" s="15">
-        <v>6320</v>
+        <v>9652</v>
       </c>
       <c r="L13" s="15">
-        <v>9652</v>
+        <v>11176</v>
       </c>
       <c r="M13" s="15">
-        <v>11176</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7832</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-334</v>
+        <v>-811</v>
       </c>
       <c r="E14" s="11">
-        <v>-811</v>
+        <v>-1772</v>
       </c>
       <c r="F14" s="11">
-        <v>-1772</v>
+        <v>-1244</v>
       </c>
       <c r="G14" s="11">
-        <v>-1244</v>
+        <v>-728</v>
       </c>
       <c r="H14" s="11">
-        <v>-728</v>
+        <v>-330</v>
       </c>
       <c r="I14" s="11">
-        <v>-330</v>
+        <v>-576</v>
       </c>
       <c r="J14" s="11">
-        <v>-576</v>
+        <v>-503</v>
       </c>
       <c r="K14" s="11">
-        <v>-503</v>
+        <v>-605</v>
       </c>
       <c r="L14" s="11">
-        <v>-605</v>
+        <v>-2042</v>
       </c>
       <c r="M14" s="11">
-        <v>-2042</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-1676</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -970,259 +1006,259 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="E16" s="11">
-        <v>228</v>
+        <v>-105</v>
       </c>
       <c r="F16" s="11">
-        <v>-105</v>
+        <v>-8</v>
       </c>
       <c r="G16" s="11">
-        <v>-8</v>
+        <v>-177</v>
       </c>
       <c r="H16" s="11">
-        <v>-177</v>
+        <v>170</v>
       </c>
       <c r="I16" s="11">
-        <v>170</v>
+        <v>-102</v>
       </c>
       <c r="J16" s="11">
-        <v>-102</v>
+        <v>6</v>
       </c>
       <c r="K16" s="11">
-        <v>6</v>
+        <v>-7</v>
       </c>
       <c r="L16" s="11">
-        <v>-7</v>
+        <v>244</v>
       </c>
       <c r="M16" s="11">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>3678</v>
+        <v>4422</v>
       </c>
       <c r="E17" s="15">
-        <v>4422</v>
+        <v>3017</v>
       </c>
       <c r="F17" s="15">
-        <v>3017</v>
+        <v>5605</v>
       </c>
       <c r="G17" s="15">
-        <v>5605</v>
+        <v>4837</v>
       </c>
       <c r="H17" s="15">
-        <v>4837</v>
+        <v>6045</v>
       </c>
       <c r="I17" s="15">
-        <v>6045</v>
+        <v>3991</v>
       </c>
       <c r="J17" s="15">
-        <v>3991</v>
+        <v>5823</v>
       </c>
       <c r="K17" s="15">
-        <v>5823</v>
+        <v>9040</v>
       </c>
       <c r="L17" s="15">
-        <v>9040</v>
+        <v>9378</v>
       </c>
       <c r="M17" s="15">
-        <v>9378</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6806</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-40</v>
+        <v>-47</v>
       </c>
       <c r="E18" s="11">
-        <v>-47</v>
+        <v>-39</v>
       </c>
       <c r="F18" s="11">
-        <v>-39</v>
+        <v>-58</v>
       </c>
       <c r="G18" s="11">
-        <v>-58</v>
+        <v>-46</v>
       </c>
       <c r="H18" s="11">
-        <v>-46</v>
+        <v>-45</v>
       </c>
       <c r="I18" s="11">
-        <v>-45</v>
+        <v>-37</v>
       </c>
       <c r="J18" s="11">
-        <v>-37</v>
+        <v>-51</v>
       </c>
       <c r="K18" s="11">
-        <v>-51</v>
+        <v>-43</v>
       </c>
       <c r="L18" s="11">
-        <v>-43</v>
+        <v>-41</v>
       </c>
       <c r="M18" s="11">
-        <v>-41</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>228</v>
+        <v>553</v>
       </c>
       <c r="E19" s="13">
-        <v>553</v>
+        <v>84</v>
       </c>
       <c r="F19" s="13">
-        <v>84</v>
+        <v>454</v>
       </c>
       <c r="G19" s="13">
-        <v>454</v>
+        <v>251</v>
       </c>
       <c r="H19" s="13">
-        <v>251</v>
+        <v>620</v>
       </c>
       <c r="I19" s="13">
-        <v>620</v>
+        <v>386</v>
       </c>
       <c r="J19" s="13">
-        <v>386</v>
+        <v>854</v>
       </c>
       <c r="K19" s="13">
-        <v>854</v>
+        <v>794</v>
       </c>
       <c r="L19" s="13">
-        <v>794</v>
+        <v>824</v>
       </c>
       <c r="M19" s="13">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>3866</v>
+        <v>4927</v>
       </c>
       <c r="E20" s="17">
-        <v>4927</v>
+        <v>3062</v>
       </c>
       <c r="F20" s="17">
-        <v>3062</v>
+        <v>6002</v>
       </c>
       <c r="G20" s="17">
-        <v>6002</v>
+        <v>5042</v>
       </c>
       <c r="H20" s="17">
-        <v>5042</v>
+        <v>6620</v>
       </c>
       <c r="I20" s="17">
-        <v>6620</v>
+        <v>4340</v>
       </c>
       <c r="J20" s="17">
-        <v>4340</v>
+        <v>6626</v>
       </c>
       <c r="K20" s="17">
-        <v>6626</v>
+        <v>9791</v>
       </c>
       <c r="L20" s="17">
-        <v>9791</v>
+        <v>10161</v>
       </c>
       <c r="M20" s="17">
-        <v>10161</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>7804</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-586</v>
+        <v>-713</v>
       </c>
       <c r="E21" s="13">
-        <v>-713</v>
+        <v>89</v>
       </c>
       <c r="F21" s="13">
-        <v>89</v>
+        <v>-427</v>
       </c>
       <c r="G21" s="13">
-        <v>-427</v>
+        <v>-1388</v>
       </c>
       <c r="H21" s="13">
-        <v>-1388</v>
+        <v>-224</v>
       </c>
       <c r="I21" s="13">
-        <v>-224</v>
+        <v>-596</v>
       </c>
       <c r="J21" s="13">
-        <v>-596</v>
+        <v>-858</v>
       </c>
       <c r="K21" s="13">
+        <v>-2160</v>
+      </c>
+      <c r="L21" s="13">
+        <v>-1307</v>
+      </c>
+      <c r="M21" s="13">
         <v>-858</v>
       </c>
-      <c r="L21" s="13">
-        <v>-2160</v>
-      </c>
-      <c r="M21" s="13">
-        <v>-1307</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>3281</v>
+        <v>4214</v>
       </c>
       <c r="E22" s="17">
-        <v>4214</v>
+        <v>3151</v>
       </c>
       <c r="F22" s="17">
-        <v>3151</v>
+        <v>5575</v>
       </c>
       <c r="G22" s="17">
-        <v>5575</v>
+        <v>3654</v>
       </c>
       <c r="H22" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="I22" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="J22" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="K22" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="L22" s="17">
-        <v>7631</v>
+        <v>8853</v>
       </c>
       <c r="M22" s="17">
-        <v>8853</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
@@ -1258,43 +1294,43 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>3281</v>
+        <v>4214</v>
       </c>
       <c r="E24" s="17">
-        <v>4214</v>
+        <v>3151</v>
       </c>
       <c r="F24" s="17">
-        <v>3151</v>
+        <v>5575</v>
       </c>
       <c r="G24" s="17">
-        <v>5575</v>
+        <v>3654</v>
       </c>
       <c r="H24" s="17">
-        <v>3654</v>
+        <v>6396</v>
       </c>
       <c r="I24" s="17">
-        <v>6396</v>
+        <v>3744</v>
       </c>
       <c r="J24" s="17">
-        <v>3744</v>
+        <v>5768</v>
       </c>
       <c r="K24" s="17">
-        <v>5768</v>
+        <v>7631</v>
       </c>
       <c r="L24" s="17">
-        <v>7631</v>
+        <v>8853</v>
       </c>
       <c r="M24" s="17">
-        <v>8853</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>6945</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>41</v>
       </c>
@@ -1330,43 +1366,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
-        <v>2947</v>
+        <v>2392</v>
       </c>
       <c r="E26" s="11">
-        <v>2392</v>
+        <v>2661</v>
       </c>
       <c r="F26" s="11">
-        <v>2661</v>
+        <v>2786</v>
       </c>
       <c r="G26" s="11">
-        <v>2786</v>
+        <v>2490</v>
       </c>
       <c r="H26" s="11">
-        <v>2490</v>
+        <v>2283</v>
       </c>
       <c r="I26" s="11">
-        <v>2283</v>
+        <v>2360</v>
       </c>
       <c r="J26" s="11">
-        <v>2360</v>
+        <v>2212</v>
       </c>
       <c r="K26" s="11">
-        <v>2212</v>
+        <v>2096</v>
       </c>
       <c r="L26" s="11">
-        <v>2096</v>
+        <v>1871</v>
       </c>
       <c r="M26" s="11">
-        <v>1871</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>43</v>
       </c>
@@ -1402,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/siman/save/income/quarterly/dollar.xlsx
+++ b/database/industries/siman/save/income/quarterly/dollar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\VAHID\Desktop\Trade\database\industries\siman\save\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68D90C98-67AE-453E-9E4F-81CA2AA896F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC85D78-C08D-4F7B-9569-775E96A3744F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="64">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,6 +37,30 @@
     <t>دوره مالی</t>
   </si>
   <si>
+    <t>فصل سوم منتهی به 1397/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1397/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1398/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1398/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1398/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1398/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1399/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -67,9 +91,39 @@
     <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
+    <t>فصل اول منتهی به 1402/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1402/06</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
+    <t>1398-12-11 (2)</t>
+  </si>
+  <si>
+    <t>1399-02-15 (10)</t>
+  </si>
+  <si>
+    <t>1399-04-27</t>
+  </si>
+  <si>
+    <t>1399-09-05 (4)</t>
+  </si>
+  <si>
+    <t>1399-10-30 (3)</t>
+  </si>
+  <si>
+    <t>1400-02-19 (11)</t>
+  </si>
+  <si>
+    <t>1400-05-20 (3)</t>
+  </si>
+  <si>
+    <t>1400-08-29 (4)</t>
+  </si>
+  <si>
     <t>1400-11-02 (2)</t>
   </si>
   <si>
@@ -88,16 +142,22 @@
     <t>1402-02-27 (12)</t>
   </si>
   <si>
-    <t>1401-05-01</t>
-  </si>
-  <si>
-    <t>1401-08-30 (2)</t>
+    <t>1402-04-31 (2)</t>
+  </si>
+  <si>
+    <t>1402-07-30 (3)</t>
   </si>
   <si>
     <t>1401-11-19 (2)</t>
   </si>
   <si>
-    <t>1402-02-27 (3)</t>
+    <t>1402-07-30 (5)</t>
+  </si>
+  <si>
+    <t>1402-04-31</t>
+  </si>
+  <si>
+    <t>1402-07-30</t>
   </si>
   <si>
     <t>فروش</t>
@@ -130,7 +190,7 @@
     <t>خالص سایر درامدها و هزینه های غیرعملیاتی</t>
   </si>
   <si>
-    <t>سود (زیان) خالص عملیات در حال تداوم قبل از مالیات</t>
+    <t>سود (زیان) عملیات در حال تداوم قبل از مالیات</t>
   </si>
   <si>
     <t>مالیات</t>
@@ -618,13 +678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:M28"/>
+  <dimension ref="B1:W28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="54" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
     <col min="4" max="4" width="29" customWidth="1"/>
     <col min="5" max="5" width="31" customWidth="1"/>
@@ -632,9 +692,14 @@
     <col min="9" max="9" width="31" customWidth="1"/>
     <col min="10" max="12" width="29" customWidth="1"/>
     <col min="13" max="13" width="31" customWidth="1"/>
+    <col min="14" max="16" width="29" customWidth="1"/>
+    <col min="17" max="17" width="31" customWidth="1"/>
+    <col min="18" max="20" width="29" customWidth="1"/>
+    <col min="21" max="21" width="31" customWidth="1"/>
+    <col min="22" max="23" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -647,8 +712,18 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,8 +738,18 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -679,8 +764,18 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -693,8 +788,18 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-    </row>
-    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+    </row>
+    <row r="5" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -709,8 +814,18 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-    </row>
-    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="2:23" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -725,8 +840,18 @@
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -739,8 +864,18 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+    </row>
+    <row r="8" spans="2:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -775,44 +910,104 @@
       <c r="M8" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q8" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S9" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -825,514 +1020,944 @@
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="11"/>
+      <c r="V10" s="11"/>
+      <c r="W10" s="11"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
+        <v>3976</v>
+      </c>
+      <c r="E11" s="13">
+        <v>4145</v>
+      </c>
+      <c r="F11" s="13">
+        <v>6237</v>
+      </c>
+      <c r="G11" s="13">
+        <v>7667</v>
+      </c>
+      <c r="H11" s="13">
+        <v>8300</v>
+      </c>
+      <c r="I11" s="13">
+        <v>8388</v>
+      </c>
+      <c r="J11" s="13">
+        <v>9209</v>
+      </c>
+      <c r="K11" s="13">
+        <v>6943</v>
+      </c>
+      <c r="L11" s="13">
         <v>8060</v>
       </c>
-      <c r="E11" s="13">
+      <c r="M11" s="13">
         <v>8138</v>
       </c>
-      <c r="F11" s="13">
+      <c r="N11" s="13">
         <v>11452</v>
       </c>
-      <c r="G11" s="13">
+      <c r="O11" s="13">
         <v>9867</v>
       </c>
-      <c r="H11" s="13">
+      <c r="P11" s="13">
         <v>10855</v>
       </c>
-      <c r="I11" s="13">
+      <c r="Q11" s="13">
         <v>10940</v>
       </c>
-      <c r="J11" s="13">
+      <c r="R11" s="13">
         <v>11624</v>
       </c>
-      <c r="K11" s="13">
+      <c r="S11" s="13">
         <v>15224</v>
       </c>
-      <c r="L11" s="13">
+      <c r="T11" s="13">
         <v>18216</v>
       </c>
-      <c r="M11" s="13">
+      <c r="U11" s="13">
         <v>14720</v>
       </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V11" s="13">
+        <v>14751</v>
+      </c>
+      <c r="W11" s="13">
+        <v>15551</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
+        <v>-1720</v>
+      </c>
+      <c r="E12" s="11">
+        <v>-3249</v>
+      </c>
+      <c r="F12" s="11">
+        <v>-3254</v>
+      </c>
+      <c r="G12" s="11">
+        <v>-4248</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-3706</v>
+      </c>
+      <c r="I12" s="11">
+        <v>-4088</v>
+      </c>
+      <c r="J12" s="11">
+        <v>-3937</v>
+      </c>
+      <c r="K12" s="11">
+        <v>-3123</v>
+      </c>
+      <c r="L12" s="11">
         <v>-3056</v>
       </c>
-      <c r="E12" s="11">
+      <c r="M12" s="11">
         <v>-3243</v>
       </c>
-      <c r="F12" s="11">
+      <c r="N12" s="11">
         <v>-4595</v>
       </c>
-      <c r="G12" s="11">
+      <c r="O12" s="11">
         <v>-4125</v>
       </c>
-      <c r="H12" s="11">
+      <c r="P12" s="11">
         <v>-4649</v>
       </c>
-      <c r="I12" s="11">
+      <c r="Q12" s="11">
         <v>-6272</v>
       </c>
-      <c r="J12" s="11">
+      <c r="R12" s="11">
         <v>-5304</v>
       </c>
-      <c r="K12" s="11">
+      <c r="S12" s="11">
         <v>-5572</v>
       </c>
-      <c r="L12" s="11">
+      <c r="T12" s="11">
         <v>-7040</v>
       </c>
-      <c r="M12" s="11">
+      <c r="U12" s="11">
         <v>-6888</v>
       </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V12" s="11">
+        <v>-5174</v>
+      </c>
+      <c r="W12" s="11">
+        <v>-6210</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
+        <v>2256</v>
+      </c>
+      <c r="E13" s="15">
+        <v>896</v>
+      </c>
+      <c r="F13" s="15">
+        <v>2983</v>
+      </c>
+      <c r="G13" s="15">
+        <v>3418</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4594</v>
+      </c>
+      <c r="I13" s="15">
+        <v>4300</v>
+      </c>
+      <c r="J13" s="15">
+        <v>5272</v>
+      </c>
+      <c r="K13" s="15">
+        <v>3820</v>
+      </c>
+      <c r="L13" s="15">
         <v>5005</v>
       </c>
-      <c r="E13" s="15">
+      <c r="M13" s="15">
         <v>4895</v>
       </c>
-      <c r="F13" s="15">
+      <c r="N13" s="15">
         <v>6857</v>
       </c>
-      <c r="G13" s="15">
+      <c r="O13" s="15">
         <v>5742</v>
       </c>
-      <c r="H13" s="15">
+      <c r="P13" s="15">
         <v>6206</v>
       </c>
-      <c r="I13" s="15">
+      <c r="Q13" s="15">
         <v>4669</v>
       </c>
-      <c r="J13" s="15">
+      <c r="R13" s="15">
         <v>6320</v>
       </c>
-      <c r="K13" s="15">
+      <c r="S13" s="15">
         <v>9652</v>
       </c>
-      <c r="L13" s="15">
+      <c r="T13" s="15">
         <v>11176</v>
       </c>
-      <c r="M13" s="15">
+      <c r="U13" s="15">
         <v>7832</v>
       </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V13" s="15">
+        <v>9577</v>
+      </c>
+      <c r="W13" s="15">
+        <v>9341</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
+        <v>-186</v>
+      </c>
+      <c r="E14" s="11">
+        <v>-324</v>
+      </c>
+      <c r="F14" s="11">
+        <v>-702</v>
+      </c>
+      <c r="G14" s="11">
+        <v>-239</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-242</v>
+      </c>
+      <c r="I14" s="11">
+        <v>-1228</v>
+      </c>
+      <c r="J14" s="11">
+        <v>-992</v>
+      </c>
+      <c r="K14" s="11">
+        <v>-334</v>
+      </c>
+      <c r="L14" s="11">
         <v>-811</v>
       </c>
-      <c r="E14" s="11">
+      <c r="M14" s="11">
         <v>-1772</v>
       </c>
-      <c r="F14" s="11">
+      <c r="N14" s="11">
         <v>-1244</v>
       </c>
-      <c r="G14" s="11">
+      <c r="O14" s="11">
         <v>-728</v>
       </c>
-      <c r="H14" s="11">
+      <c r="P14" s="11">
         <v>-330</v>
       </c>
-      <c r="I14" s="11">
+      <c r="Q14" s="11">
         <v>-576</v>
       </c>
-      <c r="J14" s="11">
+      <c r="R14" s="11">
         <v>-503</v>
       </c>
-      <c r="K14" s="11">
+      <c r="S14" s="11">
         <v>-605</v>
       </c>
-      <c r="L14" s="11">
+      <c r="T14" s="11">
         <v>-2042</v>
       </c>
-      <c r="M14" s="11">
+      <c r="U14" s="11">
         <v>-1676</v>
       </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V14" s="11">
+        <v>-1180</v>
+      </c>
+      <c r="W14" s="11">
+        <v>-781</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V15" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W15" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
+        <v>-2</v>
+      </c>
+      <c r="E16" s="11">
+        <v>-57</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="11">
+        <v>470</v>
+      </c>
+      <c r="H16" s="11">
+        <v>115</v>
+      </c>
+      <c r="I16" s="11">
+        <v>137</v>
+      </c>
+      <c r="J16" s="11">
+        <v>500</v>
+      </c>
+      <c r="K16" s="11">
+        <v>192</v>
+      </c>
+      <c r="L16" s="11">
         <v>228</v>
       </c>
-      <c r="E16" s="11">
+      <c r="M16" s="11">
         <v>-105</v>
       </c>
-      <c r="F16" s="11">
+      <c r="N16" s="11">
         <v>-8</v>
       </c>
-      <c r="G16" s="11">
+      <c r="O16" s="11">
         <v>-177</v>
       </c>
-      <c r="H16" s="11">
+      <c r="P16" s="11">
         <v>170</v>
       </c>
-      <c r="I16" s="11">
+      <c r="Q16" s="11">
         <v>-102</v>
       </c>
-      <c r="J16" s="11">
+      <c r="R16" s="11">
         <v>6</v>
       </c>
-      <c r="K16" s="11">
+      <c r="S16" s="11">
         <v>-7</v>
       </c>
-      <c r="L16" s="11">
+      <c r="T16" s="11">
         <v>244</v>
       </c>
-      <c r="M16" s="11">
+      <c r="U16" s="11">
         <v>650</v>
       </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V16" s="11">
+        <v>73</v>
+      </c>
+      <c r="W16" s="11">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
+        <v>2068</v>
+      </c>
+      <c r="E17" s="15">
+        <v>514</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2282</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3649</v>
+      </c>
+      <c r="H17" s="15">
+        <v>4467</v>
+      </c>
+      <c r="I17" s="15">
+        <v>3209</v>
+      </c>
+      <c r="J17" s="15">
+        <v>4780</v>
+      </c>
+      <c r="K17" s="15">
+        <v>3678</v>
+      </c>
+      <c r="L17" s="15">
         <v>4422</v>
       </c>
-      <c r="E17" s="15">
+      <c r="M17" s="15">
         <v>3017</v>
       </c>
-      <c r="F17" s="15">
+      <c r="N17" s="15">
         <v>5605</v>
       </c>
-      <c r="G17" s="15">
+      <c r="O17" s="15">
         <v>4837</v>
       </c>
-      <c r="H17" s="15">
+      <c r="P17" s="15">
         <v>6045</v>
       </c>
-      <c r="I17" s="15">
+      <c r="Q17" s="15">
         <v>3991</v>
       </c>
-      <c r="J17" s="15">
+      <c r="R17" s="15">
         <v>5823</v>
       </c>
-      <c r="K17" s="15">
+      <c r="S17" s="15">
         <v>9040</v>
       </c>
-      <c r="L17" s="15">
+      <c r="T17" s="15">
         <v>9378</v>
       </c>
-      <c r="M17" s="15">
+      <c r="U17" s="15">
         <v>6806</v>
       </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V17" s="15">
+        <v>8470</v>
+      </c>
+      <c r="W17" s="15">
+        <v>8556</v>
+      </c>
+    </row>
+    <row r="18" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
+        <v>-67</v>
+      </c>
+      <c r="E18" s="11">
+        <v>-93</v>
+      </c>
+      <c r="F18" s="11">
+        <v>-105</v>
+      </c>
+      <c r="G18" s="11">
+        <v>-78</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-106</v>
+      </c>
+      <c r="I18" s="11">
+        <v>-59</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-74</v>
+      </c>
+      <c r="K18" s="11">
+        <v>-40</v>
+      </c>
+      <c r="L18" s="11">
         <v>-47</v>
       </c>
-      <c r="E18" s="11">
+      <c r="M18" s="11">
         <v>-39</v>
       </c>
-      <c r="F18" s="11">
+      <c r="N18" s="11">
         <v>-58</v>
       </c>
-      <c r="G18" s="11">
+      <c r="O18" s="11">
         <v>-46</v>
       </c>
-      <c r="H18" s="11">
+      <c r="P18" s="11">
         <v>-45</v>
       </c>
-      <c r="I18" s="11">
+      <c r="Q18" s="11">
         <v>-37</v>
       </c>
-      <c r="J18" s="11">
+      <c r="R18" s="11">
         <v>-51</v>
       </c>
-      <c r="K18" s="11">
+      <c r="S18" s="11">
         <v>-43</v>
       </c>
-      <c r="L18" s="11">
+      <c r="T18" s="11">
         <v>-41</v>
       </c>
-      <c r="M18" s="11">
+      <c r="U18" s="11">
         <v>-29</v>
       </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V18" s="11">
+        <v>-29</v>
+      </c>
+      <c r="W18" s="11">
+        <v>-56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
+        <v>276</v>
+      </c>
+      <c r="E19" s="13">
+        <v>440</v>
+      </c>
+      <c r="F19" s="13">
+        <v>221</v>
+      </c>
+      <c r="G19" s="13">
+        <v>48</v>
+      </c>
+      <c r="H19" s="13">
+        <v>166</v>
+      </c>
+      <c r="I19" s="13">
+        <v>624</v>
+      </c>
+      <c r="J19" s="13">
+        <v>334</v>
+      </c>
+      <c r="K19" s="13">
+        <v>228</v>
+      </c>
+      <c r="L19" s="13">
         <v>553</v>
       </c>
-      <c r="E19" s="13">
+      <c r="M19" s="13">
         <v>84</v>
       </c>
-      <c r="F19" s="13">
+      <c r="N19" s="13">
         <v>454</v>
       </c>
-      <c r="G19" s="13">
+      <c r="O19" s="13">
         <v>251</v>
       </c>
-      <c r="H19" s="13">
+      <c r="P19" s="13">
         <v>620</v>
       </c>
-      <c r="I19" s="13">
+      <c r="Q19" s="13">
         <v>386</v>
       </c>
-      <c r="J19" s="13">
+      <c r="R19" s="13">
         <v>854</v>
       </c>
-      <c r="K19" s="13">
+      <c r="S19" s="13">
         <v>794</v>
       </c>
-      <c r="L19" s="13">
+      <c r="T19" s="13">
         <v>824</v>
       </c>
-      <c r="M19" s="13">
+      <c r="U19" s="13">
         <v>1027</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V19" s="13">
+        <v>922</v>
+      </c>
+      <c r="W19" s="13">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="20" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
+        <v>2277</v>
+      </c>
+      <c r="E20" s="17">
+        <v>861</v>
+      </c>
+      <c r="F20" s="17">
+        <v>2399</v>
+      </c>
+      <c r="G20" s="17">
+        <v>3619</v>
+      </c>
+      <c r="H20" s="17">
+        <v>4528</v>
+      </c>
+      <c r="I20" s="17">
+        <v>3774</v>
+      </c>
+      <c r="J20" s="17">
+        <v>5040</v>
+      </c>
+      <c r="K20" s="17">
+        <v>3866</v>
+      </c>
+      <c r="L20" s="17">
         <v>4927</v>
       </c>
-      <c r="E20" s="17">
+      <c r="M20" s="17">
         <v>3062</v>
       </c>
-      <c r="F20" s="17">
+      <c r="N20" s="17">
         <v>6002</v>
       </c>
-      <c r="G20" s="17">
+      <c r="O20" s="17">
         <v>5042</v>
       </c>
-      <c r="H20" s="17">
+      <c r="P20" s="17">
         <v>6620</v>
       </c>
-      <c r="I20" s="17">
+      <c r="Q20" s="17">
         <v>4340</v>
       </c>
-      <c r="J20" s="17">
+      <c r="R20" s="17">
         <v>6626</v>
       </c>
-      <c r="K20" s="17">
+      <c r="S20" s="17">
         <v>9791</v>
       </c>
-      <c r="L20" s="17">
+      <c r="T20" s="17">
         <v>10161</v>
       </c>
-      <c r="M20" s="17">
+      <c r="U20" s="17">
         <v>7804</v>
       </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V20" s="17">
+        <v>9364</v>
+      </c>
+      <c r="W20" s="17">
+        <v>9257</v>
+      </c>
+    </row>
+    <row r="21" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
+        <v>-503</v>
+      </c>
+      <c r="E21" s="13">
+        <v>-47</v>
+      </c>
+      <c r="F21" s="13">
+        <v>-369</v>
+      </c>
+      <c r="G21" s="13">
+        <v>-491</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-1219</v>
+      </c>
+      <c r="I21" s="13">
+        <v>-389</v>
+      </c>
+      <c r="J21" s="13">
+        <v>-588</v>
+      </c>
+      <c r="K21" s="13">
+        <v>-586</v>
+      </c>
+      <c r="L21" s="13">
         <v>-713</v>
       </c>
-      <c r="E21" s="13">
+      <c r="M21" s="13">
         <v>89</v>
       </c>
-      <c r="F21" s="13">
+      <c r="N21" s="13">
         <v>-427</v>
       </c>
-      <c r="G21" s="13">
+      <c r="O21" s="13">
         <v>-1388</v>
       </c>
-      <c r="H21" s="13">
+      <c r="P21" s="13">
         <v>-224</v>
       </c>
-      <c r="I21" s="13">
+      <c r="Q21" s="13">
         <v>-596</v>
       </c>
-      <c r="J21" s="13">
+      <c r="R21" s="13">
         <v>-858</v>
       </c>
-      <c r="K21" s="13">
+      <c r="S21" s="13">
         <v>-2160</v>
       </c>
-      <c r="L21" s="13">
+      <c r="T21" s="13">
         <v>-1307</v>
       </c>
-      <c r="M21" s="13">
+      <c r="U21" s="13">
         <v>-858</v>
       </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V21" s="13">
+        <v>-1466</v>
+      </c>
+      <c r="W21" s="13">
+        <v>-620</v>
+      </c>
+    </row>
+    <row r="22" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
+        <v>1774</v>
+      </c>
+      <c r="E22" s="17">
+        <v>815</v>
+      </c>
+      <c r="F22" s="17">
+        <v>2030</v>
+      </c>
+      <c r="G22" s="17">
+        <v>3129</v>
+      </c>
+      <c r="H22" s="17">
+        <v>3309</v>
+      </c>
+      <c r="I22" s="17">
+        <v>3385</v>
+      </c>
+      <c r="J22" s="17">
+        <v>4452</v>
+      </c>
+      <c r="K22" s="17">
+        <v>3281</v>
+      </c>
+      <c r="L22" s="17">
         <v>4214</v>
       </c>
-      <c r="E22" s="17">
+      <c r="M22" s="17">
         <v>3151</v>
       </c>
-      <c r="F22" s="17">
+      <c r="N22" s="17">
         <v>5575</v>
       </c>
-      <c r="G22" s="17">
+      <c r="O22" s="17">
         <v>3654</v>
       </c>
-      <c r="H22" s="17">
+      <c r="P22" s="17">
         <v>6396</v>
       </c>
-      <c r="I22" s="17">
+      <c r="Q22" s="17">
         <v>3744</v>
       </c>
-      <c r="J22" s="17">
+      <c r="R22" s="17">
         <v>5768</v>
       </c>
-      <c r="K22" s="17">
+      <c r="S22" s="17">
         <v>7631</v>
       </c>
-      <c r="L22" s="17">
+      <c r="T22" s="17">
         <v>8853</v>
       </c>
-      <c r="M22" s="17">
+      <c r="U22" s="17">
         <v>6945</v>
       </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V22" s="17">
+        <v>7898</v>
+      </c>
+      <c r="W22" s="17">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="K23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="U23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="V23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
+        <v>1774</v>
+      </c>
+      <c r="E24" s="17">
+        <v>815</v>
+      </c>
+      <c r="F24" s="17">
+        <v>2030</v>
+      </c>
+      <c r="G24" s="17">
+        <v>3129</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3309</v>
+      </c>
+      <c r="I24" s="17">
+        <v>3385</v>
+      </c>
+      <c r="J24" s="17">
+        <v>4452</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3281</v>
+      </c>
+      <c r="L24" s="17">
         <v>4214</v>
       </c>
-      <c r="E24" s="17">
+      <c r="M24" s="17">
         <v>3151</v>
       </c>
-      <c r="F24" s="17">
+      <c r="N24" s="17">
         <v>5575</v>
       </c>
-      <c r="G24" s="17">
+      <c r="O24" s="17">
         <v>3654</v>
       </c>
-      <c r="H24" s="17">
+      <c r="P24" s="17">
         <v>6396</v>
       </c>
-      <c r="I24" s="17">
+      <c r="Q24" s="17">
         <v>3744</v>
       </c>
-      <c r="J24" s="17">
+      <c r="R24" s="17">
         <v>5768</v>
       </c>
-      <c r="K24" s="17">
+      <c r="S24" s="17">
         <v>7631</v>
       </c>
-      <c r="L24" s="17">
+      <c r="T24" s="17">
         <v>8853</v>
       </c>
-      <c r="M24" s="17">
+      <c r="U24" s="17">
         <v>6945</v>
       </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V24" s="17">
+        <v>7898</v>
+      </c>
+      <c r="W24" s="17">
+        <v>8637</v>
+      </c>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
@@ -1365,46 +1990,106 @@
       <c r="M25" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="13">
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <v>0</v>
+      </c>
+      <c r="U25" s="13">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>0</v>
+      </c>
+      <c r="W25" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="11">
+        <v>4991</v>
+      </c>
+      <c r="E26" s="11">
+        <v>5488</v>
+      </c>
+      <c r="F26" s="11">
+        <v>4720</v>
+      </c>
+      <c r="G26" s="11">
+        <v>5440</v>
+      </c>
+      <c r="H26" s="11">
+        <v>5490</v>
+      </c>
+      <c r="I26" s="11">
+        <v>4701</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3991</v>
+      </c>
+      <c r="K26" s="11">
+        <v>2947</v>
+      </c>
+      <c r="L26" s="11">
         <v>2392</v>
       </c>
-      <c r="E26" s="11">
+      <c r="M26" s="11">
         <v>2661</v>
       </c>
-      <c r="F26" s="11">
+      <c r="N26" s="11">
         <v>2786</v>
       </c>
-      <c r="G26" s="11">
+      <c r="O26" s="11">
         <v>2490</v>
       </c>
-      <c r="H26" s="11">
+      <c r="P26" s="11">
         <v>2283</v>
       </c>
-      <c r="I26" s="11">
+      <c r="Q26" s="11">
         <v>2360</v>
       </c>
-      <c r="J26" s="11">
+      <c r="R26" s="11">
         <v>2212</v>
       </c>
-      <c r="K26" s="11">
+      <c r="S26" s="11">
         <v>2096</v>
       </c>
-      <c r="L26" s="11">
+      <c r="T26" s="11">
         <v>1871</v>
       </c>
-      <c r="M26" s="11">
+      <c r="U26" s="11">
         <v>1430</v>
       </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="V26" s="11">
+        <v>1261</v>
+      </c>
+      <c r="W26" s="11">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
@@ -1437,8 +2122,38 @@
       <c r="M27" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="13">
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <v>0</v>
+      </c>
+      <c r="U27" s="13">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1451,6 +2166,16 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
